--- a/src/main/resources/tracker.xlsx
+++ b/src/main/resources/tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golavinash\Desktop\SpringBoot\TestCaseRegression\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47737F0D-9AA9-46E3-9EBB-A4C7EA322C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D65C9-C92A-4902-A858-B6F267E4AF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{103744F8-07CA-48FB-9AB9-96FDDEE41E62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TestcaseID</t>
   </si>
@@ -71,22 +71,49 @@
     <t>TC009</t>
   </si>
   <si>
-    <t>Failed because of the payment issue</t>
-  </si>
-  <si>
-    <t>Failed because of Invalid Credentials</t>
-  </si>
-  <si>
-    <t>Facing 400 bad request error</t>
-  </si>
-  <si>
-    <t>Facing 500 server error</t>
-  </si>
-  <si>
-    <t>Failed because of the invalid Credentials</t>
-  </si>
-  <si>
     <t>TC010</t>
+  </si>
+  <si>
+    <t>TERM_Verify the ecn is generated and policy  submission is Successful when the Face Amount is &gt;2M and product is Term for 10 years</t>
+  </si>
+  <si>
+    <t>TERM_Verify the ecn is generated and policy  submission is Successful when the Face Amount is &lt;2M and product is Term for 20 years</t>
+  </si>
+  <si>
+    <t>TERM_Verify the ecn is generated and policy submission is Successful when the Face Amount is &lt;2M and product is Term for 20 years, selecting Children's Term Insurance Rider</t>
+  </si>
+  <si>
+    <t>IUL_Verify the policy Submission is Successful when the Face Amount is &lt;2M and product is IUL selecting all Possible Riders</t>
+  </si>
+  <si>
+    <t>IUL_Validate all DOB and Identifier Number is masking across all the screens during Policy Submission and validate the Policy is submitted Successfully</t>
+  </si>
+  <si>
+    <t>IUL_JUVI_Validate the UW engine Declines the Policy when the Face amount for the policy exceeds 500K  when the Insured is Juvinile</t>
+  </si>
+  <si>
+    <t>IUL_JUVI_Validate the policy is submitted When the Owner is parent and Payor is different for Juvenile Existing Customer when FaceAmount&gt;100K</t>
+  </si>
+  <si>
+    <t>IUL_TERM_JUVI_Validate the User is able to navigate after Beneficary Page when OFAC check fails</t>
+  </si>
+  <si>
+    <t>TERM_Validate all DOB and Identifier Number is masking across all the screens during Policy Submission and validate the Policy is submitted Successfully</t>
+  </si>
+  <si>
+    <t>IUL_Verify the ecn is generated and policy submission is Successful when the Face Amount is 200K ,all parties different with all possible Riders</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>IUL_Validate the error Message is displayed and Policy is Declined when the total Faceamount crosses 2M considering all past policies</t>
+  </si>
+  <si>
+    <t>TERM_Validate the user is able to Navigate the after Beneficary page when OFAC is successful and validate the Policy is Submitted with ecn generation</t>
   </si>
 </sst>
 </file>
@@ -458,16 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F6E164-2426-49FC-B5C1-16AC5134E2EE}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="35.90625" customWidth="1"/>
+    <col min="2" max="2" width="106.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -483,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -491,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -499,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -507,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -515,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -523,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -531,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -539,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -547,15 +574,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
